--- a/data/long_razon/P24_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_1-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-45,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 125,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 46,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,55; -17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 32,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 90,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 12,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 58,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 48,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-48,53; -12,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 46,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,71; -7,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 30,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,39; -9,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 50,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 7,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,98; -5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 31,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 51,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 19,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 23,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 21,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 17,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 7,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 5,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,58; -5,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 14,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 5,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_1-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.6490501701642959</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1803168095132721</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4411252831629192</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.062903862349556</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.3037635383118984</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6173656174818739</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1843338566596733</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.9955903051284518</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>0.47374051051309</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2038340210764985</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.3047986577994553</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>1.024510945543891</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.007372383403024881</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5737212391961459</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6619620534125626</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1492995779485023</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.2475281274126518</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.09820773186082675</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3860055708177905</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.2235528115497937</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.005062234257395341</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.173781611282588</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4661609149463327</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.4018755623343943</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.083019773798391</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3694144107263021</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.1484642261596355</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.346710345378921</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>1.250347377967615</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.452937448596733</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.08684689362731302</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.954947074874878</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>1.117406260844254</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.6678046459632988</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>-0.1151368475704634</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.97135072641635</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.610460525295875</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3109769911537916</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01194593809035406</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.04700809724566365</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.3081595772849422</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1904857240614955</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2431193310588271</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.03431137668703003</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>0.0352213492392772</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.2527347524264483</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1216951834883285</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.008017435512189688</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.1567714466678165</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.503261484521242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2234849425454037</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3072762987629782</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.4935772591401217</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3884754237666295</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.02574895913564833</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2037313728007178</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.1555073389439383</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3905264520967516</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.05087758459380035</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.1830346938433852</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.288598125480154</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.07209911997086692</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2947677588005254</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3323343959964707</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-0.08284474358264669</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.04481819554666168</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.5515647453869417</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3322927394044541</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>0.3315814131628969</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.08938762266141193</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3148549828087124</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.2080937897996541</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.05098887645322914</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1360683985303247</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.06970247670985596</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1436049851196334</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.04736520860058585</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.003393165755906677</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1186310674641129</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2637130191330946</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.002242444172657352</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.06102292750703402</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.0964317890752628</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2071220799133958</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3095380982075654</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.367971509514599</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2858686095703631</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1449176911926624</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.3250469277656637</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2251069673063643</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2843833577505799</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.009001408729782466</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.2299187179844975</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2288655863281683</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.2412044243784234</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0.004001204767766097</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.5088037420985048</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1661462226665093</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2173538128681871</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7272315244126782</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.2621324014476999</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2818444011749089</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.09190030730977714</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.59561897770295</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.2508339419564253</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.1370004020694713</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.07513115325726263</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.4968093828653945</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.4012314752803339</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2353416462566156</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1203955694705544</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1740317586676652</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.146810697474255</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.0005173605567866816</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.008170810732517728</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2895027377562074</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>0.08361937903938159</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1170644569847813</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.05458912910842698</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.2330529868588364</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.1073791442455388</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3859794620504458</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2736001125275099</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.05403098024428199</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.2953730390228088</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.141747664285121</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.115980390054778</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.0998937387110528</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.0687819654526724</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2286891576533383</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1494982531147903</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.07556108309990898</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.7577955930688244</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.07811620713710271</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.04438451518259067</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5147378192855714</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.02912358907747948</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2105281296620334</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1457112490052976</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5062641686732089</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>0.2751588011408726</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.007290169901260504</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.05927012672392841</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.4181729268919266</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
